--- a/صيدليات دكتور مصطفي طلعت_2026-01-14_19-34.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-14_19-34.xlsx
@@ -192,6 +192,9 @@
   </si>
   <si>
     <t>3:4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAXEOL PI 5MG  250TAB</t>
   </si>
   <si>
     <t>LEVOCTIVAN 0.5MG/ML SYRUP 120 ML</t>
@@ -1941,17 +1944,17 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -1967,17 +1970,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -1985,7 +1988,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1993,17 +1996,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -2019,13 +2022,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2045,17 +2048,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>18</v>
+        <v>109</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -2071,17 +2074,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2097,17 +2100,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2115,7 +2118,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2123,17 +2126,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2149,17 +2152,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>50</v>
+        <v>135</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2167,7 +2170,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2175,17 +2178,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>260</v>
+        <v>50</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2193,7 +2196,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2201,17 +2204,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>41</v>
+        <v>260</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2227,17 +2230,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2253,13 +2256,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>21.559999999999999</v>
+        <v>75</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2279,13 +2282,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>28</v>
+        <v>21.559999999999999</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2305,17 +2308,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2331,13 +2334,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2349,7 +2352,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2357,17 +2360,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2383,17 +2386,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2409,17 +2412,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>55</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2427,7 +2430,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2435,17 +2438,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2461,17 +2464,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2487,17 +2490,17 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" ht="25.5" customHeight="1">
@@ -2513,17 +2516,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2539,13 +2542,13 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2565,17 +2568,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>58</v>
+        <v>230</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2591,17 +2594,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2617,17 +2620,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2643,17 +2646,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2661,7 +2664,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2669,17 +2672,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>68.310000000000002</v>
+        <v>84</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2695,13 +2698,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>35</v>
+        <v>68.310000000000002</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2721,13 +2724,13 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2747,17 +2750,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2773,17 +2776,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2799,13 +2802,13 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
@@ -2825,17 +2828,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2851,17 +2854,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>531</v>
+        <v>41</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2877,17 +2880,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>-96</v>
+        <v>531</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2903,17 +2906,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>11</v>
+        <v>-96</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2929,17 +2932,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2955,13 +2958,13 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
@@ -2981,13 +2984,13 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
@@ -3007,13 +3010,13 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3033,17 +3036,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>14.67</v>
+        <v>120</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3051,7 +3054,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3059,17 +3062,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>34</v>
+        <v>14.67</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3085,17 +3088,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3111,17 +3114,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3137,17 +3140,17 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>192</v>
+        <v>42</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" ht="25.5" customHeight="1">
@@ -3163,17 +3166,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3189,17 +3192,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3215,17 +3218,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3233,7 +3236,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3241,13 +3244,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3267,17 +3270,17 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>40</v>
+        <v>-4</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3293,13 +3296,13 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
@@ -3311,7 +3314,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3319,13 +3322,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3345,51 +3348,77 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="96" ht="25.5" customHeight="1">
-      <c r="K96" s="10">
-        <v>5248.5200000000004</v>
-      </c>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="11">
+    <row r="96" ht="24.75" customHeight="1">
+      <c r="A96" s="6">
+        <v>93</v>
+      </c>
+      <c t="s" r="B96" s="7">
         <v>126</v>
       </c>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c t="s" r="F97" s="12">
+      <c r="C96" s="7"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7"/>
+      <c t="s" r="H96" s="8">
+        <v>9</v>
+      </c>
+      <c r="I96" s="8"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="9">
+        <v>20</v>
+      </c>
+      <c r="M96" s="9"/>
+      <c t="s" r="N96" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" ht="26.25" customHeight="1">
+      <c r="K97" s="10">
+        <v>5260.5200000000004</v>
+      </c>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+    </row>
+    <row r="98" ht="16.5" customHeight="1">
+      <c t="s" r="A98" s="11">
         <v>127</v>
       </c>
-      <c r="G97" s="12"/>
-      <c r="H97" s="13"/>
-      <c t="s" r="I97" s="14">
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c t="s" r="F98" s="12">
         <v>128</v>
       </c>
-      <c r="J97" s="14"/>
-      <c r="K97" s="14"/>
-      <c r="L97" s="14"/>
-      <c r="M97" s="14"/>
-      <c r="N97" s="14"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="13"/>
+      <c t="s" r="I98" s="14">
+        <v>129</v>
+      </c>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="290">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3673,10 +3702,13 @@
     <mergeCell ref="B95:G95"/>
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
-    <mergeCell ref="K96:N96"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="I97:N97"/>
+    <mergeCell ref="B96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="K97:N97"/>
+    <mergeCell ref="A98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="I98:N98"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
